--- a/biology/Médecine/Jacques_d'Amboise_(médecin)/Jacques_d'Amboise_(médecin).xlsx
+++ b/biology/Médecine/Jacques_d'Amboise_(médecin)/Jacques_d'Amboise_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_d%27Amboise_(m%C3%A9decin)</t>
+          <t>Jacques_d'Amboise_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques d'Amboise (1559-1606) est un chirurgien français. Il a été recteur de l'université de Paris et professeur au Collège royal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_d%27Amboise_(m%C3%A9decin)</t>
+          <t>Jacques_d'Amboise_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jean d'Amboise, chirurgien des rois François Ier, Henri II, François II, Charles IX et Henri III.
 Chirurgien du roi Henri III, il se fait remarquer lorsqu'il réalise, devant Ambroise Paré et plusieurs grands maîtres de la chirurgie, la dissection d'une femme. Il n'a alors que 20 ans. Il devient par la suite docteur en médecine, puis médecin du roi Henri IV. En 1594, il est élu recteur de l'université de Paris. En 1596, il est nommé professeur au Collège royal, où il est titulaire de la chaire de médecine.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_d%27Amboise_(m%C3%A9decin)</t>
+          <t>Jacques_d'Amboise_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Bayle, Dictionnaire historique et critique, p. 177
 J. Balteau, Dictionnaire de biographie française, tome II
